--- a/ETI/data_2ph_injection.xlsx
+++ b/ETI/data_2ph_injection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Google Drive/Purdue/PhD/ECU project/Riley/Tests/60K_raw_data_VI_2ph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/ETI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF4E0C4-F788-BD4E-8473-971DBDDC9F71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1FE718-6AE3-7A44-80F9-314285189494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="460" windowWidth="31060" windowHeight="20860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9835C4F-B291-0F4D-AA4C-9688C253B1FF}">
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
